--- a/hospitals/get_data/hospital_hours_data.xlsx
+++ b/hospitals/get_data/hospital_hours_data.xlsx
@@ -466,8 +466,8 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>월~금: 08:30 ~ 17:30
-토: 08:30 ~ 12:30</t>
+          <t>월~금 08:30 ~ 17:30
+토 08:30 ~ 12:30</t>
         </is>
       </c>
     </row>
@@ -487,8 +487,8 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>월~금: 08:30 ~ 17:30
-토: 08:30 ~ 12:00</t>
+          <t>월~금 08:30 ~ 17:30
+토 08:30 ~ 12:00</t>
         </is>
       </c>
     </row>
@@ -508,9 +508,9 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 13:00
-월~금: 13:00 ~ 14:00</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 13:00
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -530,9 +530,9 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 19:00
-토: 09:00 ~ 16:00
-월~토: 13:00 ~ 14:00</t>
+          <t>월~금 09:00 ~ 19:00
+토 09:00 ~ 16:00
+월~토 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -552,8 +552,8 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 15:00</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 15:00</t>
         </is>
       </c>
     </row>
@@ -589,8 +589,8 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 14:00</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -626,10 +626,10 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>월,화,수,금: 09:00 ~ 18:00
-목: 13:30 ~ 18:00
-토: 09:00 ~ 12:30
-월,화,수,금: 12:30 ~ 13:30</t>
+          <t>월,화,수,금 09:00 ~ 18:00
+목 13:30 ~ 18:00
+토 09:00 ~ 12:30
+월,화,수,금 휴게시간 12:30 ~ 13:30</t>
         </is>
       </c>
     </row>
@@ -649,10 +649,10 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>월,화,수,금: 08:30 ~ 18:30
-목: 08:30 ~ 20:00
-토: 08:30 ~ 13:00
-월~금: 13:00 ~ 14:00</t>
+          <t>월,화,수,금 08:30 ~ 18:30
+목 08:30 ~ 20:00
+토 08:30 ~ 13:00
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -672,8 +672,8 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 13:00</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 13:00</t>
         </is>
       </c>
     </row>
@@ -693,9 +693,9 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 14:00
-월~금: 12:30 ~ 13:30</t>
+          <t>월~금 09:00 ~ 18:00 (물리치료는 평일에만 가능)
+토 09:00 ~ 14:00 (물리치료는 평일에만 가능)
+월~금 휴게시간 12:30 ~ 13:30</t>
         </is>
       </c>
     </row>
@@ -715,9 +715,9 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>월~금: 09:30 ~ 18:30
-토: 09:30 ~ 12:30
-월~금: 12:30 ~ 14:00</t>
+          <t>월~금 09:30 ~ 18:30
+토 09:30 ~ 12:30
+월~금 휴게시간 12:30 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -737,9 +737,9 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 19:00
-토: 09:00 ~ 13:00
-일: 10:00 ~ 12:00</t>
+          <t>월~금 09:00 ~ 19:00
+토 09:00 ~ 13:00
+일 10:00 ~ 12:00</t>
         </is>
       </c>
     </row>
@@ -759,8 +759,8 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 12:00</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 12:00</t>
         </is>
       </c>
     </row>
@@ -780,8 +780,8 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 13:00</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 13:00</t>
         </is>
       </c>
     </row>
@@ -801,10 +801,10 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>월,화,목,금: 08:30 ~ 17:30
-토: 10:00 ~ 13:00
-월,화,금: 12:30 ~ 14:00
-목: 12:30 ~ 14:30</t>
+          <t>월,화,목,금 08:30 ~ 17:30
+토 10:00 ~ 13:00
+월,화,금 휴게시간 12:30 ~ 14:00
+목 휴게시간 12:30 ~ 14:30</t>
         </is>
       </c>
     </row>
@@ -824,9 +824,9 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 19:00
-토: 09:00 ~ 14:00
-월~금: 13:00 ~ 14:00</t>
+          <t>월~금 09:00 ~ 19:00
+토 09:00 ~ 14:00
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -846,10 +846,10 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>월,수,목,금: 09:30 ~ 17:30
-화: 09:30 ~ 19:30
-토: 09:30 ~ 12:50
-월~금: 13:00 ~ 14:00</t>
+          <t>월,수,목,금 09:30 ~ 17:30
+화 09:30 ~ 19:30
+토 09:30 ~ 12:50
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -869,8 +869,8 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>월~금: 09:30 ~ 17:30
-토: 09:30 ~ 14:00</t>
+          <t>월~금 09:30 ~ 17:30
+토 09:30 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -890,8 +890,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>월~금: 08:30 ~ 17:30
-월~금: 11:30 ~ 13:00</t>
+          <t>월~금 08:30 ~ 17:30
+월~금 휴게시간 11:30 ~ 13:00</t>
         </is>
       </c>
     </row>
@@ -927,8 +927,8 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>월~금: 09:30 ~ 17:30
-토: 09:30 ~ 12:30</t>
+          <t>월~금 09:30 ~ 17:30
+토 09:30 ~ 12:30</t>
         </is>
       </c>
     </row>
@@ -948,9 +948,9 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>월~금: 09:30 ~ 18:00
-토: 09:30 ~ 15:00
-월~금: 12:30 ~ 14:00</t>
+          <t>월~금 09:30 ~ 18:00
+토 09:30 ~ 15:00
+월~금 휴게시간 12:30 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -970,8 +970,8 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 21:00
-토: 09:00 ~ 19:00</t>
+          <t>월~금 09:00 ~ 21:00
+토 09:00 ~ 19:00</t>
         </is>
       </c>
     </row>
@@ -1007,9 +1007,9 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 13:00
-월~금: 13:00 ~ 14:00</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 13:00
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1029,10 +1029,10 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>월,수,목,금: 09:00 ~ 18:00
-화: 09:00 ~ 19:00
-토: 09:00 ~ 14:00
-월~금: 13:00 ~ 14:00</t>
+          <t>월,수,목,금 09:00 ~ 18:00
+화 09:00 ~ 19:00 (피부관리실 21:00까지)
+토 09:00 ~ 14:00
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1052,8 +1052,8 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 13:30</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 13:30</t>
         </is>
       </c>
     </row>
@@ -1089,8 +1089,8 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>월,화,목,금: 09:00 ~ 18:00
-토: 09:00 ~ 12:00</t>
+          <t>월,화,목,금 09:00 ~ 18:00
+토 09:00 ~ 12:00</t>
         </is>
       </c>
     </row>
@@ -1110,8 +1110,8 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 13:00</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 13:00</t>
         </is>
       </c>
     </row>
@@ -1131,8 +1131,8 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:30
-토: 09:00 ~ 15:00</t>
+          <t>월~금 09:00 ~ 18:30
+토 09:00 ~ 15:00</t>
         </is>
       </c>
     </row>
@@ -1152,8 +1152,8 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>월~금: 08:30 ~ 18:00
-토: 08:30 ~ 13:00</t>
+          <t>월~금 08:30 ~ 18:00
+토 08:30 ~ 13:00</t>
         </is>
       </c>
     </row>
@@ -1189,8 +1189,8 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>월~금: 10:00 ~ 19:00
-토,일: 10:00 ~ 18:00</t>
+          <t>월~금 10:00 ~ 19:00
+토,일 10:00 ~ 18:00</t>
         </is>
       </c>
     </row>
@@ -1210,9 +1210,9 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>월~금: 08:30 ~ 18:00
-토: 08:30 ~ 13:00
-월~금: 13:00 ~ 14:00</t>
+          <t>월~금 08:30 ~ 18:00
+토 08:30 ~ 13:00
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1232,9 +1232,9 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:00
-토: 09:00 ~ 13:00
-월~금: 13:00 ~ 14:00</t>
+          <t>월~금 09:00 ~ 18:00
+토 09:00 ~ 13:00
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1286,8 +1286,8 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>월~금: 09:30 ~ 18:00
-토: 09:30 ~ 13:00</t>
+          <t>월~금 09:30 ~ 18:00
+토 09:30 ~ 13:00</t>
         </is>
       </c>
     </row>
@@ -1307,8 +1307,8 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>월~금: 09:30 ~ 18:00
-토: 09:30 ~ 12:00</t>
+          <t>월~금 09:30 ~ 18:00
+토 09:30 ~ 12:00</t>
         </is>
       </c>
     </row>
@@ -1328,10 +1328,10 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>월,화,목,금: 09:30 ~ 18:30
-수: 14:00 ~ 20:30
-토: 09:30 ~ 13:30
-월,화,목,금: 13:00 ~ 14:00</t>
+          <t>월,화,목,금 09:30 ~ 18:30
+수 14:00 ~ 20:30
+토 09:30 ~ 13:30
+월,화,목,금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1351,9 +1351,9 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>월,화,금: 09:30 ~ 18:00
-목: 09:30 ~ 20:00
-토: 09:30 ~ 14:00</t>
+          <t>월,화,금 09:30 ~ 18:00
+목 09:30 ~ 20:00
+토 09:30 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1373,10 +1373,10 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>월,화,금: 09:00 ~ 19:00
-목: 09:00 ~ 21:00
-토: 09:00 ~ 14:00
-월,화,목,금: 13:00 ~ 14:00</t>
+          <t>월,화,금 09:00 ~ 19:00
+목 09:00 ~ 21:00
+토 09:00 ~ 14:00
+월,화,목,금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1396,9 +1396,9 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>월~금: 08:00 ~ 19:00
-토: 08:00 ~ 14:00
-금: 13:00 ~ 14:00</t>
+          <t>월~금 08:00 ~ 19:00
+토 08:00 ~ 14:00
+금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1418,10 +1418,10 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>월~금: 09:00 ~ 18:30
-토: 09:00 ~ 15:00
-일: 09:00 ~ 13:00
-월~금: 13:00 ~ 14:00</t>
+          <t>월~금 09:00 ~ 18:30
+토 09:00 ~ 15:00
+일 09:00 ~ 13:00
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1441,9 +1441,9 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>월~금: 10:00 ~ 19:30
-토: 10:00 ~ 14:30
-월~금: 13:00 ~ 14:00</t>
+          <t>월~금 10:00 ~ 19:30
+토 10:00 ~ 14:30
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1463,9 +1463,9 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>월,화,목,금: 08:00 ~ 18:00
-수,토: 08:00 ~ 13:00
-월,화,목,금: 13:00 ~ 14:00</t>
+          <t>월,화,목,금 08:00 ~ 18:00
+수,토 08:00 ~ 13:00
+월,화,목,금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1485,10 +1485,10 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>월,화,목,금: 09:30 ~ 21:00
-수: 09:30 ~ 19:00
-토: 09:30 ~ 16:00
-월~금: 13:00 ~ 14:00</t>
+          <t>월,화,목,금 09:30 ~ 21:00
+수 09:30 ~ 19:00 (야간진료 제외)
+토 09:30 ~ 16:00
+월~금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1508,9 +1508,9 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>월,수: 09:30 ~ 18:30
-화,금: 09:30 ~ 20:00
-토: 09:30 ~ 14:00</t>
+          <t>월,수 09:30 ~ 18:30
+화,금 09:30 ~ 20:00
+토 09:30 ~ 14:00 (점심시간 없이 진료)</t>
         </is>
       </c>
     </row>
@@ -1530,9 +1530,9 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>월~금: 10:00 ~ 20:00
-토: 10:00 ~ 15:00
-월~금: 14:00 ~ 15:00</t>
+          <t>월~금 10:00 ~ 20:00
+토 10:00 ~ 15:00
+월~금 휴게시간 14:00 ~ 15:00</t>
         </is>
       </c>
     </row>
@@ -1552,10 +1552,10 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>월,화,목,금: 09:00 ~ 18:00
-수: 14:00 ~ 18:00
-토: 09:00 ~ 13:00
-월,화,목,금: 13:00 ~ 14:00</t>
+          <t>월,화,목,금 09:00 ~ 18:00
+수 14:00 ~ 18:00
+토 09:00 ~ 13:00
+월,화,목,금 휴게시간 13:00 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1575,9 +1575,9 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>월~금: 08:30 ~ 17:00
-토: 08:30 ~ 12:00
-월~금: 12:00 ~ 13:30</t>
+          <t>월~금 08:30 ~ 17:00
+토 08:30 ~ 12:00
+월~금 휴게시간 12:00 ~ 13:30</t>
         </is>
       </c>
     </row>
@@ -1597,9 +1597,9 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>월~금: 08:30 ~ 17:30
-토: 08:30 ~ 12:30
-월~금: 12:30 ~ 13:30</t>
+          <t>월~금 08:30 ~ 17:30
+토 08:30 ~ 12:30
+월~금 휴게시간 12:30 ~ 13:30</t>
         </is>
       </c>
     </row>
@@ -1619,10 +1619,10 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>월~목: 10:00 ~ 18:00
-금: 10:00 ~ 19:30
-토: 09:30 ~ 15:00
-월~금: 12:30 ~ 14:00</t>
+          <t>월~목 10:00 ~ 18:00
+금 10:00 ~ 19:30
+토 09:30 ~ 15:00
+월~금 휴게시간 12:30 ~ 14:00</t>
         </is>
       </c>
     </row>
@@ -1642,9 +1642,9 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>월,수,금: 08:00 ~ 20:30
-화,목: 08:00 ~ 18:00
-토: 08:00 ~ 14:00</t>
+          <t>월,수,금 08:00 ~ 20:30
+화,목 08:00 ~ 18:00
+토 08:00 ~ 14:00</t>
         </is>
       </c>
     </row>
